--- a/src/main/resources/data/document with multiple tables.xlsx
+++ b/src/main/resources/data/document with multiple tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRU_SG1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRU_SG1\DataLoaderStudio\sales-english\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42168BAD-4819-40BA-BD0E-57E72A98952D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C655AA26-7D35-4C3B-A020-4B1C6625A650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
